--- a/620_VersaLogic.xlsx
+++ b/620_VersaLogic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\Data 620\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\Data620\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A61016-8646-4C04-95EF-965B6001A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FBF983-728C-4941-A065-BDF38968C98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="136">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1"/>
@@ -482,6 +482,14 @@
   </si>
   <si>
     <t>&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TI01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DM23</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -837,10 +845,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AC40"/>
+  <dimension ref="B2:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H39" activeCellId="5" sqref="H29:H37 K29:K37 K39 K41 K40 H39:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -941,6 +949,9 @@
       <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="V3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1041,6 +1052,9 @@
       <c r="R5" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="S5" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="V5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1762,6 +1776,9 @@
       <c r="O19" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="P19" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="R19" s="1" t="s">
         <v>70</v>
       </c>
@@ -1815,8 +1832,14 @@
       <c r="O20" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="P20" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="R20" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>18</v>
@@ -1865,6 +1888,9 @@
       <c r="O21" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="P21" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="R21" s="1" t="s">
         <v>72</v>
       </c>
@@ -2027,6 +2053,9 @@
       <c r="O24" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="P24" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="R24" s="1" t="s">
         <v>75</v>
       </c>
@@ -2189,8 +2218,14 @@
       <c r="O27" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="P27" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="R27" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>25</v>
@@ -2285,7 +2320,7 @@
       </c>
       <c r="K31" s="1">
         <f>COUNTIF(B3:AC27,"FF26*")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L31" s="2"/>
       <c r="O31" s="2"/>
@@ -2300,7 +2335,7 @@
       </c>
       <c r="H32" s="1">
         <f>COUNTIF(B3:AC27,"LD312*")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>115</v>
@@ -2349,7 +2384,7 @@
       </c>
       <c r="H34" s="1">
         <f>COUNTIF(B3:AC27,"PA24*")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>123</v>
@@ -2409,25 +2444,23 @@
     </row>
     <row r="37" spans="5:15">
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="5:15">
-      <c r="F38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H38" s="1">
-        <f>COUNTIF(B3:AC27,"MS01*")</f>
-        <v>1</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="H37" s="1">
+        <f>COUNTIF(B3:AC27,"DM23*")</f>
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K37" s="1">
         <f>COUNTIF(B3:AC27,"AD34*")</f>
         <v>2</v>
       </c>
@@ -2473,6 +2506,28 @@
       </c>
       <c r="K40" s="1">
         <f>COUNTIF(B3:AC27,"XC-31*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15">
+      <c r="F41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="1">
+        <f>COUNTIF(B3:AC27,"TI01*")</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" s="1">
+        <f>COUNTIF(B3:AC27,"MS01*")</f>
         <v>1</v>
       </c>
     </row>

--- a/620_VersaLogic.xlsx
+++ b/620_VersaLogic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\Data620\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FBF983-728C-4941-A065-BDF38968C98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D032851-CC2D-44BC-91B7-0FEA1A1D95AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,7 +848,7 @@
   <dimension ref="B2:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H39" activeCellId="5" sqref="H29:H37 K29:K37 K39 K41 K40 H39:H41"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/620_VersaLogic.xlsx
+++ b/620_VersaLogic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\Data620\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D032851-CC2D-44BC-91B7-0FEA1A1D95AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765CF4AD-1A1E-47ED-ADC4-F3D048C051B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -847,8 +847,8 @@
   </sheetPr>
   <dimension ref="B2:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1109,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>29</v>
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>36</v>
@@ -1209,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>37</v>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="H31" s="1">
         <f>COUNTIF(B3:AC27,"GR26*")</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>117</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="K34" s="1">
         <f>COUNTIF(B3:AC27,"PA26*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="5:15">
